--- a/stockfish_last/products_data_sample.xlsx
+++ b/stockfish_last/products_data_sample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozom\Desktop\stockfish_last_git\stockfish_last\stockfish_last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\OneDrive\Masaüstü\Stockfish_Last\stockfish_v1.0.9\stockfish_last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0B084A-AC31-41D2-8EFF-D33DD3A66CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{3A2F8644-4BA9-4681-B517-3C635BB1DA38}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L289" authorId="0" shapeId="0" xr:uid="{3F1D525A-5643-4139-94B2-A91345BC97BA}">
+    <comment ref="L289" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L387" authorId="0" shapeId="0" xr:uid="{1C513DD1-77AA-4346-B3D0-6DB5D903CC58}">
+    <comment ref="L387" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L622" authorId="0" shapeId="0" xr:uid="{41773488-7B74-4E89-83D1-10E219FE82A5}">
+    <comment ref="L622" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L624" authorId="0" shapeId="0" xr:uid="{39DE786F-5419-42A2-9884-5CBECE359D99}">
+    <comment ref="L624" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7657,7 +7656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
@@ -7869,7 +7868,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note 2" xfId="1" xr:uid="{35DBEA93-1243-4878-956F-2447E38FC4FB}"/>
+    <cellStyle name="Note 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8180,22 +8179,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCA75D5-9DEC-4432-95CC-D6622797E30A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="3.47265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="8.83984375" style="13"/>
+    <col min="8" max="8" width="3.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.6" thickTop="1" thickBot="1">
+    <row r="1" spans="1:12" ht="35.25" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.7" thickTop="1">
+    <row r="2" spans="1:12" ht="15.75" thickTop="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8263,7 +8262,7 @@
       </c>
       <c r="J2" s="15">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>2500</v>
@@ -8302,7 +8301,7 @@
       </c>
       <c r="J3" s="15">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>2500</v>
@@ -8341,7 +8340,7 @@
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J67" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>2500</v>
@@ -8380,7 +8379,7 @@
       </c>
       <c r="J5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2500</v>
@@ -8419,7 +8418,7 @@
       </c>
       <c r="J6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>2500</v>
@@ -8458,7 +8457,7 @@
       </c>
       <c r="J7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>2500</v>
@@ -8497,7 +8496,7 @@
       </c>
       <c r="J8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>2500</v>
@@ -8536,7 +8535,7 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>2500</v>
@@ -8575,7 +8574,7 @@
       </c>
       <c r="J10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>2500</v>
@@ -8614,7 +8613,7 @@
       </c>
       <c r="J11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>2500</v>
@@ -8653,7 +8652,7 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>2500</v>
@@ -8692,7 +8691,7 @@
       </c>
       <c r="J13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>2500</v>
@@ -8731,7 +8730,7 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>2500</v>
@@ -8770,7 +8769,7 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>2500</v>
@@ -8809,7 +8808,7 @@
       </c>
       <c r="J16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>2500</v>
@@ -8848,7 +8847,7 @@
       </c>
       <c r="J17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>2500</v>
@@ -8887,7 +8886,7 @@
       </c>
       <c r="J18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>2500</v>
@@ -8926,7 +8925,7 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>2500</v>
@@ -8965,7 +8964,7 @@
       </c>
       <c r="J20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>2500</v>
@@ -9004,7 +9003,7 @@
       </c>
       <c r="J21" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>2500</v>
@@ -9043,7 +9042,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>2500</v>
@@ -9082,7 +9081,7 @@
       </c>
       <c r="J23" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>2500</v>
@@ -9121,7 +9120,7 @@
       </c>
       <c r="J24" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>2500</v>
@@ -9160,7 +9159,7 @@
       </c>
       <c r="J25" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>2500</v>
@@ -9199,7 +9198,7 @@
       </c>
       <c r="J26" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>2500</v>
@@ -9238,7 +9237,7 @@
       </c>
       <c r="J27" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>2500</v>
@@ -9277,7 +9276,7 @@
       </c>
       <c r="J28" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>2500</v>
@@ -9316,7 +9315,7 @@
       </c>
       <c r="J29" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>2500</v>
@@ -9355,7 +9354,7 @@
       </c>
       <c r="J30" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>2500</v>
@@ -9394,7 +9393,7 @@
       </c>
       <c r="J31" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>2500</v>
@@ -9433,7 +9432,7 @@
       </c>
       <c r="J32" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>2500</v>
@@ -9472,7 +9471,7 @@
       </c>
       <c r="J33" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>2500</v>
@@ -9511,7 +9510,7 @@
       </c>
       <c r="J34" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>2500</v>
@@ -9550,7 +9549,7 @@
       </c>
       <c r="J35" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>2500</v>
@@ -9589,7 +9588,7 @@
       </c>
       <c r="J36" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>2500</v>
@@ -9628,7 +9627,7 @@
       </c>
       <c r="J37" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>2500</v>
@@ -9667,7 +9666,7 @@
       </c>
       <c r="J38" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>2500</v>
@@ -9706,7 +9705,7 @@
       </c>
       <c r="J39" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>2500</v>
@@ -9745,7 +9744,7 @@
       </c>
       <c r="J40" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>2500</v>
@@ -9784,7 +9783,7 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>2500</v>
@@ -9823,7 +9822,7 @@
       </c>
       <c r="J42" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>2500</v>
@@ -9862,7 +9861,7 @@
       </c>
       <c r="J43" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>2500</v>
@@ -9901,7 +9900,7 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>2500</v>
@@ -9940,7 +9939,7 @@
       </c>
       <c r="J45" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>2500</v>
@@ -9979,7 +9978,7 @@
       </c>
       <c r="J46" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>2500</v>
@@ -10018,7 +10017,7 @@
       </c>
       <c r="J47" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>2500</v>
@@ -10057,7 +10056,7 @@
       </c>
       <c r="J48" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>2500</v>
@@ -10096,7 +10095,7 @@
       </c>
       <c r="J49" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>2500</v>
@@ -10135,7 +10134,7 @@
       </c>
       <c r="J50" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>2500</v>
@@ -10174,7 +10173,7 @@
       </c>
       <c r="J51" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>2500</v>
@@ -10213,7 +10212,7 @@
       </c>
       <c r="J52" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>2500</v>
@@ -10252,7 +10251,7 @@
       </c>
       <c r="J53" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>2500</v>
@@ -10291,7 +10290,7 @@
       </c>
       <c r="J54" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>2500</v>
@@ -10330,7 +10329,7 @@
       </c>
       <c r="J55" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>2500</v>
@@ -10369,7 +10368,7 @@
       </c>
       <c r="J56" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>2500</v>
@@ -10408,7 +10407,7 @@
       </c>
       <c r="J57" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>2500</v>
@@ -10447,7 +10446,7 @@
       </c>
       <c r="J58" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>2500</v>
@@ -10486,7 +10485,7 @@
       </c>
       <c r="J59" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>2500</v>
@@ -10525,7 +10524,7 @@
       </c>
       <c r="J60" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>2500</v>
@@ -10564,7 +10563,7 @@
       </c>
       <c r="J61" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>2500</v>
@@ -10603,7 +10602,7 @@
       </c>
       <c r="J62" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>2500</v>
@@ -10642,7 +10641,7 @@
       </c>
       <c r="J63" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>2500</v>
@@ -10681,7 +10680,7 @@
       </c>
       <c r="J64" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>2500</v>
@@ -10720,7 +10719,7 @@
       </c>
       <c r="J65" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>2500</v>
@@ -10759,7 +10758,7 @@
       </c>
       <c r="J66" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>2500</v>
@@ -10798,7 +10797,7 @@
       </c>
       <c r="J67" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>2500</v>
@@ -10837,7 +10836,7 @@
       </c>
       <c r="J68" s="15">
         <f t="shared" ref="J68:J131" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>2500</v>
@@ -10876,7 +10875,7 @@
       </c>
       <c r="J69" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>2500</v>
@@ -10915,7 +10914,7 @@
       </c>
       <c r="J70" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>2500</v>
@@ -10954,7 +10953,7 @@
       </c>
       <c r="J71" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>2500</v>
@@ -10993,7 +10992,7 @@
       </c>
       <c r="J72" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>2500</v>
@@ -11032,7 +11031,7 @@
       </c>
       <c r="J73" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>2500</v>
@@ -11071,7 +11070,7 @@
       </c>
       <c r="J74" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>2500</v>
@@ -11110,7 +11109,7 @@
       </c>
       <c r="J75" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>2500</v>
@@ -11149,7 +11148,7 @@
       </c>
       <c r="J76" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>2500</v>
@@ -11188,7 +11187,7 @@
       </c>
       <c r="J77" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>2500</v>
@@ -11227,7 +11226,7 @@
       </c>
       <c r="J78" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>2500</v>
@@ -11266,7 +11265,7 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>2500</v>
@@ -11305,7 +11304,7 @@
       </c>
       <c r="J80" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>2500</v>
@@ -11344,7 +11343,7 @@
       </c>
       <c r="J81" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>2500</v>
@@ -11383,7 +11382,7 @@
       </c>
       <c r="J82" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="K82" s="12" t="s">
         <v>2500</v>
@@ -11422,7 +11421,7 @@
       </c>
       <c r="J83" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>2500</v>
@@ -11461,7 +11460,7 @@
       </c>
       <c r="J84" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>2500</v>
@@ -11500,7 +11499,7 @@
       </c>
       <c r="J85" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>2500</v>
@@ -11539,7 +11538,7 @@
       </c>
       <c r="J86" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>2500</v>
@@ -11578,7 +11577,7 @@
       </c>
       <c r="J87" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>2500</v>
@@ -11617,7 +11616,7 @@
       </c>
       <c r="J88" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>2500</v>
@@ -11656,7 +11655,7 @@
       </c>
       <c r="J89" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>2500</v>
@@ -11695,7 +11694,7 @@
       </c>
       <c r="J90" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>2500</v>
@@ -11734,7 +11733,7 @@
       </c>
       <c r="J91" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>2500</v>
@@ -11773,7 +11772,7 @@
       </c>
       <c r="J92" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>2500</v>
@@ -11812,7 +11811,7 @@
       </c>
       <c r="J93" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>2500</v>
@@ -11851,7 +11850,7 @@
       </c>
       <c r="J94" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>2500</v>
@@ -11890,7 +11889,7 @@
       </c>
       <c r="J95" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>2500</v>
@@ -11929,7 +11928,7 @@
       </c>
       <c r="J96" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>2500</v>
@@ -11968,7 +11967,7 @@
       </c>
       <c r="J97" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>2500</v>
@@ -12007,7 +12006,7 @@
       </c>
       <c r="J98" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>2500</v>
@@ -12046,7 +12045,7 @@
       </c>
       <c r="J99" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>2500</v>
@@ -12085,7 +12084,7 @@
       </c>
       <c r="J100" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K100" s="12" t="s">
         <v>2500</v>
@@ -12124,7 +12123,7 @@
       </c>
       <c r="J101" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>2500</v>
@@ -12163,7 +12162,7 @@
       </c>
       <c r="J102" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>2500</v>
@@ -12202,7 +12201,7 @@
       </c>
       <c r="J103" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>2500</v>
@@ -12241,7 +12240,7 @@
       </c>
       <c r="J104" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>2500</v>
@@ -12280,7 +12279,7 @@
       </c>
       <c r="J105" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>2500</v>
@@ -12319,7 +12318,7 @@
       </c>
       <c r="J106" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="K106" s="12" t="s">
         <v>2500</v>
@@ -12358,7 +12357,7 @@
       </c>
       <c r="J107" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>2500</v>
@@ -12397,7 +12396,7 @@
       </c>
       <c r="J108" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="K108" s="12" t="s">
         <v>2500</v>
@@ -12436,7 +12435,7 @@
       </c>
       <c r="J109" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>2500</v>
@@ -12475,7 +12474,7 @@
       </c>
       <c r="J110" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>2500</v>
@@ -12514,7 +12513,7 @@
       </c>
       <c r="J111" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>2500</v>
@@ -12553,7 +12552,7 @@
       </c>
       <c r="J112" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>2500</v>
@@ -12592,7 +12591,7 @@
       </c>
       <c r="J113" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>2500</v>
@@ -12631,7 +12630,7 @@
       </c>
       <c r="J114" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>2500</v>
@@ -12670,7 +12669,7 @@
       </c>
       <c r="J115" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>2500</v>
@@ -12709,7 +12708,7 @@
       </c>
       <c r="J116" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>2500</v>
@@ -12748,7 +12747,7 @@
       </c>
       <c r="J117" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>2500</v>
@@ -12787,7 +12786,7 @@
       </c>
       <c r="J118" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="K118" s="12" t="s">
         <v>2500</v>
@@ -12826,7 +12825,7 @@
       </c>
       <c r="J119" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>2500</v>
@@ -12865,7 +12864,7 @@
       </c>
       <c r="J120" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="K120" s="12" t="s">
         <v>2500</v>
@@ -12904,7 +12903,7 @@
       </c>
       <c r="J121" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>2500</v>
@@ -12943,7 +12942,7 @@
       </c>
       <c r="J122" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K122" s="12" t="s">
         <v>2500</v>
@@ -12982,7 +12981,7 @@
       </c>
       <c r="J123" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K123" s="12" t="s">
         <v>2500</v>
@@ -13021,7 +13020,7 @@
       </c>
       <c r="J124" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K124" s="12" t="s">
         <v>2500</v>
@@ -13060,7 +13059,7 @@
       </c>
       <c r="J125" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>2500</v>
@@ -13099,7 +13098,7 @@
       </c>
       <c r="J126" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K126" s="12" t="s">
         <v>2500</v>
@@ -13138,7 +13137,7 @@
       </c>
       <c r="J127" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K127" s="12" t="s">
         <v>2500</v>
@@ -13177,7 +13176,7 @@
       </c>
       <c r="J128" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K128" s="12" t="s">
         <v>2500</v>
@@ -13216,7 +13215,7 @@
       </c>
       <c r="J129" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="K129" s="12" t="s">
         <v>2500</v>
@@ -13255,7 +13254,7 @@
       </c>
       <c r="J130" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K130" s="12" t="s">
         <v>2500</v>
@@ -13294,7 +13293,7 @@
       </c>
       <c r="J131" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K131" s="12" t="s">
         <v>2500</v>
@@ -13333,7 +13332,7 @@
       </c>
       <c r="J132" s="15">
         <f t="shared" ref="J132:J195" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K132" s="12" t="s">
         <v>2500</v>
@@ -13372,7 +13371,7 @@
       </c>
       <c r="J133" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>2500</v>
@@ -13411,7 +13410,7 @@
       </c>
       <c r="J134" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K134" s="12" t="s">
         <v>2500</v>
@@ -13450,7 +13449,7 @@
       </c>
       <c r="J135" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="K135" s="12" t="s">
         <v>2500</v>
@@ -13489,7 +13488,7 @@
       </c>
       <c r="J136" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K136" s="12" t="s">
         <v>2500</v>
@@ -13528,7 +13527,7 @@
       </c>
       <c r="J137" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>2500</v>
@@ -13567,7 +13566,7 @@
       </c>
       <c r="J138" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K138" s="12" t="s">
         <v>2500</v>
@@ -13606,7 +13605,7 @@
       </c>
       <c r="J139" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>2500</v>
@@ -13645,7 +13644,7 @@
       </c>
       <c r="J140" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="K140" s="12" t="s">
         <v>2500</v>
@@ -13684,7 +13683,7 @@
       </c>
       <c r="J141" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>2500</v>
@@ -13723,7 +13722,7 @@
       </c>
       <c r="J142" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K142" s="12" t="s">
         <v>2500</v>
@@ -13762,7 +13761,7 @@
       </c>
       <c r="J143" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>2500</v>
@@ -13801,7 +13800,7 @@
       </c>
       <c r="J144" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K144" s="12" t="s">
         <v>2500</v>
@@ -13840,7 +13839,7 @@
       </c>
       <c r="J145" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>2500</v>
@@ -13879,7 +13878,7 @@
       </c>
       <c r="J146" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K146" s="12" t="s">
         <v>2500</v>
@@ -13918,7 +13917,7 @@
       </c>
       <c r="J147" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>2500</v>
@@ -13957,7 +13956,7 @@
       </c>
       <c r="J148" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>2500</v>
@@ -13996,7 +13995,7 @@
       </c>
       <c r="J149" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="K149" s="12" t="s">
         <v>2500</v>
@@ -14035,7 +14034,7 @@
       </c>
       <c r="J150" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K150" s="12" t="s">
         <v>2500</v>
@@ -14074,7 +14073,7 @@
       </c>
       <c r="J151" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>2500</v>
@@ -14113,7 +14112,7 @@
       </c>
       <c r="J152" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>2500</v>
@@ -14152,7 +14151,7 @@
       </c>
       <c r="J153" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K153" s="12" t="s">
         <v>2500</v>
@@ -14191,7 +14190,7 @@
       </c>
       <c r="J154" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K154" s="12" t="s">
         <v>2500</v>
@@ -14230,7 +14229,7 @@
       </c>
       <c r="J155" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="K155" s="12" t="s">
         <v>2500</v>
@@ -14269,7 +14268,7 @@
       </c>
       <c r="J156" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K156" s="12" t="s">
         <v>2500</v>
@@ -14308,7 +14307,7 @@
       </c>
       <c r="J157" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K157" s="12" t="s">
         <v>2500</v>
@@ -14347,7 +14346,7 @@
       </c>
       <c r="J158" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K158" s="12" t="s">
         <v>2500</v>
@@ -14386,7 +14385,7 @@
       </c>
       <c r="J159" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K159" s="12" t="s">
         <v>2500</v>
@@ -14425,7 +14424,7 @@
       </c>
       <c r="J160" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K160" s="12" t="s">
         <v>2500</v>
@@ -14464,7 +14463,7 @@
       </c>
       <c r="J161" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="K161" s="12" t="s">
         <v>2500</v>
@@ -14503,7 +14502,7 @@
       </c>
       <c r="J162" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K162" s="12" t="s">
         <v>2500</v>
@@ -14542,7 +14541,7 @@
       </c>
       <c r="J163" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K163" s="12" t="s">
         <v>2500</v>
@@ -14581,7 +14580,7 @@
       </c>
       <c r="J164" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="K164" s="12" t="s">
         <v>2500</v>
@@ -14620,7 +14619,7 @@
       </c>
       <c r="J165" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K165" s="12" t="s">
         <v>2500</v>
@@ -14659,7 +14658,7 @@
       </c>
       <c r="J166" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="K166" s="12" t="s">
         <v>2500</v>
@@ -14698,7 +14697,7 @@
       </c>
       <c r="J167" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="K167" s="12" t="s">
         <v>2500</v>
@@ -14737,7 +14736,7 @@
       </c>
       <c r="J168" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K168" s="12" t="s">
         <v>2500</v>
@@ -14776,7 +14775,7 @@
       </c>
       <c r="J169" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K169" s="12" t="s">
         <v>2500</v>
@@ -14815,7 +14814,7 @@
       </c>
       <c r="J170" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="K170" s="12" t="s">
         <v>2500</v>
@@ -14854,7 +14853,7 @@
       </c>
       <c r="J171" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K171" s="12" t="s">
         <v>2500</v>
@@ -14893,7 +14892,7 @@
       </c>
       <c r="J172" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="K172" s="12" t="s">
         <v>2500</v>
@@ -14932,7 +14931,7 @@
       </c>
       <c r="J173" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K173" s="12" t="s">
         <v>2500</v>
@@ -14971,7 +14970,7 @@
       </c>
       <c r="J174" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K174" s="12" t="s">
         <v>2500</v>
@@ -15010,7 +15009,7 @@
       </c>
       <c r="J175" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K175" s="12" t="s">
         <v>2500</v>
@@ -15049,7 +15048,7 @@
       </c>
       <c r="J176" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="K176" s="12" t="s">
         <v>2500</v>
@@ -15088,7 +15087,7 @@
       </c>
       <c r="J177" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K177" s="12" t="s">
         <v>2500</v>
@@ -15127,7 +15126,7 @@
       </c>
       <c r="J178" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="K178" s="12" t="s">
         <v>2500</v>
@@ -15166,7 +15165,7 @@
       </c>
       <c r="J179" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="K179" s="12" t="s">
         <v>2500</v>
@@ -15205,7 +15204,7 @@
       </c>
       <c r="J180" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="K180" s="12" t="s">
         <v>2500</v>
@@ -15244,7 +15243,7 @@
       </c>
       <c r="J181" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K181" s="12" t="s">
         <v>2500</v>
@@ -15283,7 +15282,7 @@
       </c>
       <c r="J182" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K182" s="12" t="s">
         <v>2500</v>
@@ -15322,7 +15321,7 @@
       </c>
       <c r="J183" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="K183" s="12" t="s">
         <v>2500</v>
@@ -15361,7 +15360,7 @@
       </c>
       <c r="J184" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K184" s="12" t="s">
         <v>2500</v>
@@ -15400,7 +15399,7 @@
       </c>
       <c r="J185" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K185" s="12" t="s">
         <v>2500</v>
@@ -15439,7 +15438,7 @@
       </c>
       <c r="J186" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K186" s="12" t="s">
         <v>2500</v>
@@ -15478,7 +15477,7 @@
       </c>
       <c r="J187" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K187" s="12" t="s">
         <v>2500</v>
@@ -15517,7 +15516,7 @@
       </c>
       <c r="J188" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K188" s="12" t="s">
         <v>2500</v>
@@ -15556,7 +15555,7 @@
       </c>
       <c r="J189" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K189" s="12" t="s">
         <v>2500</v>
@@ -15634,7 +15633,7 @@
       </c>
       <c r="J191" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K191" s="12" t="s">
         <v>2500</v>
@@ -15673,7 +15672,7 @@
       </c>
       <c r="J192" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K192" s="12" t="s">
         <v>2500</v>
@@ -15712,7 +15711,7 @@
       </c>
       <c r="J193" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K193" s="12" t="s">
         <v>2500</v>
@@ -15751,7 +15750,7 @@
       </c>
       <c r="J194" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="K194" s="12" t="s">
         <v>2500</v>
@@ -15790,7 +15789,7 @@
       </c>
       <c r="J195" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K195" s="12" t="s">
         <v>2500</v>
@@ -15829,7 +15828,7 @@
       </c>
       <c r="J196" s="15">
         <f t="shared" ref="J196:J259" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K196" s="12" t="s">
         <v>2500</v>
@@ -15868,7 +15867,7 @@
       </c>
       <c r="J197" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K197" s="12" t="s">
         <v>2500</v>
@@ -15907,7 +15906,7 @@
       </c>
       <c r="J198" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="K198" s="12" t="s">
         <v>2500</v>
@@ -15946,7 +15945,7 @@
       </c>
       <c r="J199" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="K199" s="12" t="s">
         <v>2500</v>
@@ -16024,7 +16023,7 @@
       </c>
       <c r="J201" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="K201" s="12" t="s">
         <v>2500</v>
@@ -16063,7 +16062,7 @@
       </c>
       <c r="J202" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="K202" s="12" t="s">
         <v>2500</v>
@@ -16102,7 +16101,7 @@
       </c>
       <c r="J203" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K203" s="12" t="s">
         <v>2500</v>
@@ -16141,7 +16140,7 @@
       </c>
       <c r="J204" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K204" s="12" t="s">
         <v>2500</v>
@@ -16180,7 +16179,7 @@
       </c>
       <c r="J205" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K205" s="12" t="s">
         <v>2500</v>
@@ -16219,7 +16218,7 @@
       </c>
       <c r="J206" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="K206" s="12" t="s">
         <v>2500</v>
@@ -16258,7 +16257,7 @@
       </c>
       <c r="J207" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="K207" s="12" t="s">
         <v>2500</v>
@@ -16297,7 +16296,7 @@
       </c>
       <c r="J208" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K208" s="12" t="s">
         <v>2500</v>
@@ -16336,7 +16335,7 @@
       </c>
       <c r="J209" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K209" s="12" t="s">
         <v>2500</v>
@@ -16375,7 +16374,7 @@
       </c>
       <c r="J210" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K210" s="12" t="s">
         <v>2500</v>
@@ -16414,7 +16413,7 @@
       </c>
       <c r="J211" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K211" s="12" t="s">
         <v>2500</v>
@@ -16453,7 +16452,7 @@
       </c>
       <c r="J212" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="K212" s="12" t="s">
         <v>2500</v>
@@ -16492,7 +16491,7 @@
       </c>
       <c r="J213" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K213" s="12" t="s">
         <v>2500</v>
@@ -16531,7 +16530,7 @@
       </c>
       <c r="J214" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K214" s="12" t="s">
         <v>2500</v>
@@ -16570,7 +16569,7 @@
       </c>
       <c r="J215" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K215" s="12" t="s">
         <v>2500</v>
@@ -16609,7 +16608,7 @@
       </c>
       <c r="J216" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="K216" s="12" t="s">
         <v>2500</v>
@@ -16648,7 +16647,7 @@
       </c>
       <c r="J217" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K217" s="12" t="s">
         <v>2500</v>
@@ -16687,7 +16686,7 @@
       </c>
       <c r="J218" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="K218" s="12" t="s">
         <v>2500</v>
@@ -16726,7 +16725,7 @@
       </c>
       <c r="J219" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K219" s="12" t="s">
         <v>2500</v>
@@ -16765,7 +16764,7 @@
       </c>
       <c r="J220" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="K220" s="12" t="s">
         <v>2500</v>
@@ -16804,7 +16803,7 @@
       </c>
       <c r="J221" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K221" s="12" t="s">
         <v>2500</v>
@@ -16843,7 +16842,7 @@
       </c>
       <c r="J222" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K222" s="12" t="s">
         <v>2500</v>
@@ -16882,7 +16881,7 @@
       </c>
       <c r="J223" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="K223" s="12" t="s">
         <v>2500</v>
@@ -16921,7 +16920,7 @@
       </c>
       <c r="J224" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K224" s="12" t="s">
         <v>2500</v>
@@ -16960,7 +16959,7 @@
       </c>
       <c r="J225" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="K225" s="12" t="s">
         <v>2500</v>
@@ -16999,7 +16998,7 @@
       </c>
       <c r="J226" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="K226" s="12" t="s">
         <v>2500</v>
@@ -17038,7 +17037,7 @@
       </c>
       <c r="J227" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="K227" s="12" t="s">
         <v>2500</v>
@@ -17077,7 +17076,7 @@
       </c>
       <c r="J228" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K228" s="12" t="s">
         <v>2500</v>
@@ -17116,7 +17115,7 @@
       </c>
       <c r="J229" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="K229" s="12" t="s">
         <v>2500</v>
@@ -17155,7 +17154,7 @@
       </c>
       <c r="J230" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K230" s="12" t="s">
         <v>2500</v>
@@ -17194,7 +17193,7 @@
       </c>
       <c r="J231" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K231" s="12" t="s">
         <v>2500</v>
@@ -17233,7 +17232,7 @@
       </c>
       <c r="J232" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K232" s="12" t="s">
         <v>2500</v>
@@ -17272,7 +17271,7 @@
       </c>
       <c r="J233" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="K233" s="12" t="s">
         <v>2500</v>
@@ -17311,7 +17310,7 @@
       </c>
       <c r="J234" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="K234" s="12" t="s">
         <v>2500</v>
@@ -17350,7 +17349,7 @@
       </c>
       <c r="J235" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K235" s="12" t="s">
         <v>2500</v>
@@ -17389,7 +17388,7 @@
       </c>
       <c r="J236" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="K236" s="12" t="s">
         <v>2500</v>
@@ -17428,7 +17427,7 @@
       </c>
       <c r="J237" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K237" s="12" t="s">
         <v>2500</v>
@@ -17467,7 +17466,7 @@
       </c>
       <c r="J238" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K238" s="12" t="s">
         <v>2500</v>
@@ -17506,7 +17505,7 @@
       </c>
       <c r="J239" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="K239" s="12" t="s">
         <v>2500</v>
@@ -17545,7 +17544,7 @@
       </c>
       <c r="J240" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K240" s="12" t="s">
         <v>2500</v>
@@ -17584,7 +17583,7 @@
       </c>
       <c r="J241" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K241" s="12" t="s">
         <v>2500</v>
@@ -17623,7 +17622,7 @@
       </c>
       <c r="J242" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K242" s="12" t="s">
         <v>2500</v>
@@ -17662,7 +17661,7 @@
       </c>
       <c r="J243" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K243" s="12" t="s">
         <v>2500</v>
@@ -17701,7 +17700,7 @@
       </c>
       <c r="J244" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K244" s="12" t="s">
         <v>2500</v>
@@ -17740,7 +17739,7 @@
       </c>
       <c r="J245" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="K245" s="12" t="s">
         <v>2500</v>
@@ -17779,7 +17778,7 @@
       </c>
       <c r="J246" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K246" s="12" t="s">
         <v>2500</v>
@@ -17818,7 +17817,7 @@
       </c>
       <c r="J247" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="K247" s="12" t="s">
         <v>2500</v>
@@ -17857,7 +17856,7 @@
       </c>
       <c r="J248" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="K248" s="12" t="s">
         <v>2500</v>
@@ -17896,7 +17895,7 @@
       </c>
       <c r="J249" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K249" s="12" t="s">
         <v>2500</v>
@@ -17935,7 +17934,7 @@
       </c>
       <c r="J250" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K250" s="12" t="s">
         <v>2500</v>
@@ -17974,7 +17973,7 @@
       </c>
       <c r="J251" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="K251" s="12" t="s">
         <v>2500</v>
@@ -18013,7 +18012,7 @@
       </c>
       <c r="J252" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K252" s="12" t="s">
         <v>2500</v>
@@ -18052,7 +18051,7 @@
       </c>
       <c r="J253" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K253" s="12" t="s">
         <v>2500</v>
@@ -18091,7 +18090,7 @@
       </c>
       <c r="J254" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K254" s="12" t="s">
         <v>2500</v>
@@ -18130,7 +18129,7 @@
       </c>
       <c r="J255" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K255" s="12" t="s">
         <v>2500</v>
@@ -18169,7 +18168,7 @@
       </c>
       <c r="J256" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="K256" s="12" t="s">
         <v>2500</v>
@@ -18208,7 +18207,7 @@
       </c>
       <c r="J257" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="K257" s="12" t="s">
         <v>2500</v>
@@ -18247,7 +18246,7 @@
       </c>
       <c r="J258" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K258" s="12" t="s">
         <v>2500</v>
@@ -18286,7 +18285,7 @@
       </c>
       <c r="J259" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="K259" s="12" t="s">
         <v>2500</v>
@@ -18325,7 +18324,7 @@
       </c>
       <c r="J260" s="15">
         <f t="shared" ref="J260:J323" ca="1" si="4">RANDBETWEEN(1,100)</f>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K260" s="12" t="s">
         <v>2500</v>
@@ -18364,7 +18363,7 @@
       </c>
       <c r="J261" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K261" s="12" t="s">
         <v>2500</v>
@@ -18403,7 +18402,7 @@
       </c>
       <c r="J262" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K262" s="12" t="s">
         <v>2500</v>
@@ -18442,7 +18441,7 @@
       </c>
       <c r="J263" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="K263" s="12" t="s">
         <v>2500</v>
@@ -18481,7 +18480,7 @@
       </c>
       <c r="J264" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="K264" s="12" t="s">
         <v>2500</v>
@@ -18520,7 +18519,7 @@
       </c>
       <c r="J265" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K265" s="12" t="s">
         <v>2500</v>
@@ -18559,7 +18558,7 @@
       </c>
       <c r="J266" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="K266" s="12" t="s">
         <v>2500</v>
@@ -18598,7 +18597,7 @@
       </c>
       <c r="J267" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K267" s="12" t="s">
         <v>2500</v>
@@ -18637,7 +18636,7 @@
       </c>
       <c r="J268" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="K268" s="12" t="s">
         <v>2500</v>
@@ -18715,7 +18714,7 @@
       </c>
       <c r="J270" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K270" s="12" t="s">
         <v>2500</v>
@@ -18754,7 +18753,7 @@
       </c>
       <c r="J271" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K271" s="12" t="s">
         <v>2500</v>
@@ -18793,7 +18792,7 @@
       </c>
       <c r="J272" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K272" s="12" t="s">
         <v>2500</v>
@@ -18832,7 +18831,7 @@
       </c>
       <c r="J273" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K273" s="12" t="s">
         <v>2500</v>
@@ -18871,7 +18870,7 @@
       </c>
       <c r="J274" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K274" s="12" t="s">
         <v>2500</v>
@@ -18910,7 +18909,7 @@
       </c>
       <c r="J275" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K275" s="12" t="s">
         <v>2500</v>
@@ -18949,7 +18948,7 @@
       </c>
       <c r="J276" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K276" s="12" t="s">
         <v>2500</v>
@@ -18988,7 +18987,7 @@
       </c>
       <c r="J277" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K277" s="12" t="s">
         <v>2500</v>
@@ -19027,7 +19026,7 @@
       </c>
       <c r="J278" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="K278" s="12" t="s">
         <v>2500</v>
@@ -19066,7 +19065,7 @@
       </c>
       <c r="J279" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K279" s="12" t="s">
         <v>2500</v>
@@ -19105,7 +19104,7 @@
       </c>
       <c r="J280" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="K280" s="12" t="s">
         <v>2500</v>
@@ -19144,7 +19143,7 @@
       </c>
       <c r="J281" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="K281" s="12" t="s">
         <v>2500</v>
@@ -19183,7 +19182,7 @@
       </c>
       <c r="J282" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K282" s="12" t="s">
         <v>2500</v>
@@ -19222,7 +19221,7 @@
       </c>
       <c r="J283" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="K283" s="12" t="s">
         <v>2500</v>
@@ -19261,7 +19260,7 @@
       </c>
       <c r="J284" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K284" s="12" t="s">
         <v>2500</v>
@@ -19300,7 +19299,7 @@
       </c>
       <c r="J285" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="K285" s="12" t="s">
         <v>2500</v>
@@ -19339,7 +19338,7 @@
       </c>
       <c r="J286" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K286" s="12" t="s">
         <v>2500</v>
@@ -19378,7 +19377,7 @@
       </c>
       <c r="J287" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="K287" s="12" t="s">
         <v>2500</v>
@@ -19456,7 +19455,7 @@
       </c>
       <c r="J289" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K289" s="12" t="s">
         <v>2500</v>
@@ -19495,7 +19494,7 @@
       </c>
       <c r="J290" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K290" s="12" t="s">
         <v>2500</v>
@@ -19534,7 +19533,7 @@
       </c>
       <c r="J291" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="K291" s="12" t="s">
         <v>2500</v>
@@ -19573,7 +19572,7 @@
       </c>
       <c r="J292" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K292" s="12" t="s">
         <v>2500</v>
@@ -19612,7 +19611,7 @@
       </c>
       <c r="J293" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K293" s="12" t="s">
         <v>2500</v>
@@ -19651,7 +19650,7 @@
       </c>
       <c r="J294" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="K294" s="12" t="s">
         <v>2500</v>
@@ -19690,7 +19689,7 @@
       </c>
       <c r="J295" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K295" s="12" t="s">
         <v>2500</v>
@@ -19729,7 +19728,7 @@
       </c>
       <c r="J296" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="K296" s="12" t="s">
         <v>2500</v>
@@ -19768,7 +19767,7 @@
       </c>
       <c r="J297" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K297" s="12" t="s">
         <v>2500</v>
@@ -19807,7 +19806,7 @@
       </c>
       <c r="J298" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K298" s="12" t="s">
         <v>2500</v>
@@ -19846,7 +19845,7 @@
       </c>
       <c r="J299" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="K299" s="12" t="s">
         <v>2500</v>
@@ -19885,7 +19884,7 @@
       </c>
       <c r="J300" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K300" s="12" t="s">
         <v>2500</v>
@@ -19924,7 +19923,7 @@
       </c>
       <c r="J301" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K301" s="12" t="s">
         <v>2500</v>
@@ -19963,7 +19962,7 @@
       </c>
       <c r="J302" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K302" s="12" t="s">
         <v>2500</v>
@@ -20002,7 +20001,7 @@
       </c>
       <c r="J303" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="K303" s="12" t="s">
         <v>2500</v>
@@ -20039,7 +20038,7 @@
       </c>
       <c r="J304" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="K304" s="12" t="s">
         <v>2500</v>
@@ -20076,7 +20075,7 @@
       </c>
       <c r="J305" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="K305" s="12" t="s">
         <v>2500</v>
@@ -20113,7 +20112,7 @@
       </c>
       <c r="J306" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="K306" s="12" t="s">
         <v>2500</v>
@@ -20150,7 +20149,7 @@
       </c>
       <c r="J307" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K307" s="12" t="s">
         <v>2500</v>
@@ -20187,7 +20186,7 @@
       </c>
       <c r="J308" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="K308" s="12" t="s">
         <v>2500</v>
@@ -20224,7 +20223,7 @@
       </c>
       <c r="J309" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K309" s="12" t="s">
         <v>2500</v>
@@ -20261,7 +20260,7 @@
       </c>
       <c r="J310" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="K310" s="12" t="s">
         <v>2500</v>
@@ -20298,7 +20297,7 @@
       </c>
       <c r="J311" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K311" s="12" t="s">
         <v>2500</v>
@@ -20335,7 +20334,7 @@
       </c>
       <c r="J312" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K312" s="12" t="s">
         <v>2500</v>
@@ -20372,7 +20371,7 @@
       </c>
       <c r="J313" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="K313" s="12" t="s">
         <v>2500</v>
@@ -20409,7 +20408,7 @@
       </c>
       <c r="J314" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="K314" s="12" t="s">
         <v>2500</v>
@@ -20446,7 +20445,7 @@
       </c>
       <c r="J315" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="K315" s="12" t="s">
         <v>2500</v>
@@ -20483,7 +20482,7 @@
       </c>
       <c r="J316" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="K316" s="12" t="s">
         <v>2500</v>
@@ -20520,7 +20519,7 @@
       </c>
       <c r="J317" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="K317" s="12" t="s">
         <v>2500</v>
@@ -20557,7 +20556,7 @@
       </c>
       <c r="J318" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K318" s="12" t="s">
         <v>2500</v>
@@ -20594,7 +20593,7 @@
       </c>
       <c r="J319" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K319" s="12" t="s">
         <v>2500</v>
@@ -20631,7 +20630,7 @@
       </c>
       <c r="J320" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="K320" s="12" t="s">
         <v>2500</v>
@@ -20668,7 +20667,7 @@
       </c>
       <c r="J321" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="K321" s="12" t="s">
         <v>2500</v>
@@ -20705,7 +20704,7 @@
       </c>
       <c r="J322" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K322" s="12" t="s">
         <v>2500</v>
@@ -20742,7 +20741,7 @@
       </c>
       <c r="J323" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="K323" s="12" t="s">
         <v>2500</v>
@@ -20779,7 +20778,7 @@
       </c>
       <c r="J324" s="15">
         <f t="shared" ref="J324:J387" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K324" s="12" t="s">
         <v>2500</v>
@@ -20816,7 +20815,7 @@
       </c>
       <c r="J325" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="K325" s="12" t="s">
         <v>2500</v>
@@ -20853,7 +20852,7 @@
       </c>
       <c r="J326" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K326" s="12" t="s">
         <v>2500</v>
@@ -20890,7 +20889,7 @@
       </c>
       <c r="J327" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="K327" s="12" t="s">
         <v>2500</v>
@@ -20927,7 +20926,7 @@
       </c>
       <c r="J328" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K328" s="12" t="s">
         <v>2500</v>
@@ -20962,7 +20961,7 @@
       </c>
       <c r="J329" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="K329" s="12" t="s">
         <v>2500</v>
@@ -20997,7 +20996,7 @@
       </c>
       <c r="J330" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="K330" s="12" t="s">
         <v>2500</v>
@@ -21032,7 +21031,7 @@
       </c>
       <c r="J331" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="K331" s="12" t="s">
         <v>2500</v>
@@ -21067,7 +21066,7 @@
       </c>
       <c r="J332" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="K332" s="12" t="s">
         <v>2500</v>
@@ -21104,7 +21103,7 @@
       </c>
       <c r="J333" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K333" s="12" t="s">
         <v>2500</v>
@@ -21139,7 +21138,7 @@
       </c>
       <c r="J334" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K334" s="12" t="s">
         <v>2500</v>
@@ -21174,7 +21173,7 @@
       </c>
       <c r="J335" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K335" s="12" t="s">
         <v>2500</v>
@@ -21209,7 +21208,7 @@
       </c>
       <c r="J336" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K336" s="12" t="s">
         <v>2500</v>
@@ -21244,7 +21243,7 @@
       </c>
       <c r="J337" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K337" s="12" t="s">
         <v>2500</v>
@@ -21279,7 +21278,7 @@
       </c>
       <c r="J338" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K338" s="12" t="s">
         <v>2500</v>
@@ -21314,7 +21313,7 @@
       </c>
       <c r="J339" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="K339" s="12" t="s">
         <v>2500</v>
@@ -21349,7 +21348,7 @@
       </c>
       <c r="J340" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="K340" s="12" t="s">
         <v>2500</v>
@@ -21384,7 +21383,7 @@
       </c>
       <c r="J341" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="K341" s="12" t="s">
         <v>2500</v>
@@ -21419,7 +21418,7 @@
       </c>
       <c r="J342" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K342" s="12" t="s">
         <v>2500</v>
@@ -21454,7 +21453,7 @@
       </c>
       <c r="J343" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K343" s="12" t="s">
         <v>2500</v>
@@ -21489,7 +21488,7 @@
       </c>
       <c r="J344" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="K344" s="12" t="s">
         <v>2500</v>
@@ -21524,7 +21523,7 @@
       </c>
       <c r="J345" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K345" s="12" t="s">
         <v>2500</v>
@@ -21559,7 +21558,7 @@
       </c>
       <c r="J346" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="K346" s="12" t="s">
         <v>2500</v>
@@ -21594,7 +21593,7 @@
       </c>
       <c r="J347" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="K347" s="12" t="s">
         <v>2500</v>
@@ -21629,7 +21628,7 @@
       </c>
       <c r="J348" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K348" s="12" t="s">
         <v>2500</v>
@@ -21664,7 +21663,7 @@
       </c>
       <c r="J349" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K349" s="12" t="s">
         <v>2500</v>
@@ -21699,7 +21698,7 @@
       </c>
       <c r="J350" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K350" s="12" t="s">
         <v>2500</v>
@@ -21734,7 +21733,7 @@
       </c>
       <c r="J351" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K351" s="12" t="s">
         <v>2500</v>
@@ -21773,7 +21772,7 @@
       </c>
       <c r="J352" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K352" s="12" t="s">
         <v>2500</v>
@@ -21812,7 +21811,7 @@
       </c>
       <c r="J353" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K353" s="12" t="s">
         <v>2500</v>
@@ -21851,7 +21850,7 @@
       </c>
       <c r="J354" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K354" s="12" t="s">
         <v>2500</v>
@@ -21890,7 +21889,7 @@
       </c>
       <c r="J355" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="K355" s="12" t="s">
         <v>2500</v>
@@ -21929,7 +21928,7 @@
       </c>
       <c r="J356" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="K356" s="12" t="s">
         <v>2500</v>
@@ -21968,7 +21967,7 @@
       </c>
       <c r="J357" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="K357" s="12" t="s">
         <v>2500</v>
@@ -22007,7 +22006,7 @@
       </c>
       <c r="J358" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="K358" s="12" t="s">
         <v>2500</v>
@@ -22046,7 +22045,7 @@
       </c>
       <c r="J359" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="K359" s="12" t="s">
         <v>2500</v>
@@ -22085,7 +22084,7 @@
       </c>
       <c r="J360" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="K360" s="12" t="s">
         <v>2500</v>
@@ -22124,7 +22123,7 @@
       </c>
       <c r="J361" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K361" s="12" t="s">
         <v>2500</v>
@@ -22161,7 +22160,7 @@
       </c>
       <c r="J362" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="K362" s="12" t="s">
         <v>2500</v>
@@ -22198,7 +22197,7 @@
       </c>
       <c r="J363" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K363" s="12" t="s">
         <v>2500</v>
@@ -22237,7 +22236,7 @@
       </c>
       <c r="J364" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K364" s="12" t="s">
         <v>2500</v>
@@ -22276,7 +22275,7 @@
       </c>
       <c r="J365" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K365" s="12" t="s">
         <v>2500</v>
@@ -22315,7 +22314,7 @@
       </c>
       <c r="J366" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="K366" s="12" t="s">
         <v>2500</v>
@@ -22354,7 +22353,7 @@
       </c>
       <c r="J367" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K367" s="12" t="s">
         <v>2500</v>
@@ -22393,7 +22392,7 @@
       </c>
       <c r="J368" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K368" s="12" t="s">
         <v>2500</v>
@@ -22432,7 +22431,7 @@
       </c>
       <c r="J369" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K369" s="12" t="s">
         <v>2500</v>
@@ -22471,7 +22470,7 @@
       </c>
       <c r="J370" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K370" s="12" t="s">
         <v>2500</v>
@@ -22510,7 +22509,7 @@
       </c>
       <c r="J371" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K371" s="12" t="s">
         <v>2500</v>
@@ -22549,7 +22548,7 @@
       </c>
       <c r="J372" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K372" s="12" t="s">
         <v>2500</v>
@@ -22588,7 +22587,7 @@
       </c>
       <c r="J373" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K373" s="12" t="s">
         <v>2500</v>
@@ -22627,7 +22626,7 @@
       </c>
       <c r="J374" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="K374" s="12" t="s">
         <v>2500</v>
@@ -22666,7 +22665,7 @@
       </c>
       <c r="J375" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K375" s="12" t="s">
         <v>2500</v>
@@ -22705,7 +22704,7 @@
       </c>
       <c r="J376" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K376" s="12" t="s">
         <v>2500</v>
@@ -22744,7 +22743,7 @@
       </c>
       <c r="J377" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K377" s="12" t="s">
         <v>2500</v>
@@ -22783,7 +22782,7 @@
       </c>
       <c r="J378" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K378" s="12" t="s">
         <v>2500</v>
@@ -22822,7 +22821,7 @@
       </c>
       <c r="J379" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K379" s="12" t="s">
         <v>2500</v>
@@ -22861,7 +22860,7 @@
       </c>
       <c r="J380" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K380" s="12" t="s">
         <v>2500</v>
@@ -22900,7 +22899,7 @@
       </c>
       <c r="J381" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K381" s="12" t="s">
         <v>2500</v>
@@ -22939,7 +22938,7 @@
       </c>
       <c r="J382" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K382" s="12" t="s">
         <v>2500</v>
@@ -22978,7 +22977,7 @@
       </c>
       <c r="J383" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K383" s="12" t="s">
         <v>2500</v>
@@ -23015,7 +23014,7 @@
       </c>
       <c r="J384" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="K384" s="12" t="s">
         <v>2500</v>
@@ -23089,7 +23088,7 @@
       </c>
       <c r="J386" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K386" s="12" t="s">
         <v>2500</v>
@@ -23128,7 +23127,7 @@
       </c>
       <c r="J387" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K387" s="12" t="s">
         <v>2500</v>
@@ -23167,7 +23166,7 @@
       </c>
       <c r="J388" s="15">
         <f t="shared" ref="J388:J451" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="K388" s="12" t="s">
         <v>2500</v>
@@ -23206,7 +23205,7 @@
       </c>
       <c r="J389" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K389" s="12" t="s">
         <v>2500</v>
@@ -23245,7 +23244,7 @@
       </c>
       <c r="J390" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K390" s="12" t="s">
         <v>2500</v>
@@ -23284,7 +23283,7 @@
       </c>
       <c r="J391" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="K391" s="12" t="s">
         <v>2500</v>
@@ -23323,7 +23322,7 @@
       </c>
       <c r="J392" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K392" s="12" t="s">
         <v>2500</v>
@@ -23362,7 +23361,7 @@
       </c>
       <c r="J393" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="K393" s="12" t="s">
         <v>2500</v>
@@ -23401,7 +23400,7 @@
       </c>
       <c r="J394" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K394" s="12" t="s">
         <v>2500</v>
@@ -23440,7 +23439,7 @@
       </c>
       <c r="J395" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K395" s="12" t="s">
         <v>2500</v>
@@ -23479,7 +23478,7 @@
       </c>
       <c r="J396" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K396" s="12" t="s">
         <v>2500</v>
@@ -23518,7 +23517,7 @@
       </c>
       <c r="J397" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="K397" s="12" t="s">
         <v>2500</v>
@@ -23557,7 +23556,7 @@
       </c>
       <c r="J398" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K398" s="12" t="s">
         <v>2500</v>
@@ -23596,7 +23595,7 @@
       </c>
       <c r="J399" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="K399" s="12" t="s">
         <v>2500</v>
@@ -23635,7 +23634,7 @@
       </c>
       <c r="J400" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K400" s="12" t="s">
         <v>2500</v>
@@ -23674,7 +23673,7 @@
       </c>
       <c r="J401" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K401" s="12" t="s">
         <v>2500</v>
@@ -23713,7 +23712,7 @@
       </c>
       <c r="J402" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K402" s="12" t="s">
         <v>2500</v>
@@ -23752,7 +23751,7 @@
       </c>
       <c r="J403" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K403" s="12" t="s">
         <v>2500</v>
@@ -23791,7 +23790,7 @@
       </c>
       <c r="J404" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K404" s="12" t="s">
         <v>2500</v>
@@ -23830,7 +23829,7 @@
       </c>
       <c r="J405" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="K405" s="12" t="s">
         <v>2500</v>
@@ -23869,7 +23868,7 @@
       </c>
       <c r="J406" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="K406" s="12" t="s">
         <v>2500</v>
@@ -23908,7 +23907,7 @@
       </c>
       <c r="J407" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="K407" s="12" t="s">
         <v>2500</v>
@@ -23947,7 +23946,7 @@
       </c>
       <c r="J408" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K408" s="12" t="s">
         <v>2500</v>
@@ -23986,7 +23985,7 @@
       </c>
       <c r="J409" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K409" s="12" t="s">
         <v>2500</v>
@@ -24025,7 +24024,7 @@
       </c>
       <c r="J410" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="K410" s="12" t="s">
         <v>2500</v>
@@ -24064,7 +24063,7 @@
       </c>
       <c r="J411" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K411" s="12" t="s">
         <v>2500</v>
@@ -24103,7 +24102,7 @@
       </c>
       <c r="J412" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K412" s="12" t="s">
         <v>2500</v>
@@ -24142,7 +24141,7 @@
       </c>
       <c r="J413" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K413" s="12" t="s">
         <v>2500</v>
@@ -24181,7 +24180,7 @@
       </c>
       <c r="J414" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="K414" s="12" t="s">
         <v>2500</v>
@@ -24220,7 +24219,7 @@
       </c>
       <c r="J415" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K415" s="12" t="s">
         <v>2500</v>
@@ -24259,7 +24258,7 @@
       </c>
       <c r="J416" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K416" s="12" t="s">
         <v>2500</v>
@@ -24298,7 +24297,7 @@
       </c>
       <c r="J417" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K417" s="12" t="s">
         <v>2500</v>
@@ -24337,7 +24336,7 @@
       </c>
       <c r="J418" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K418" s="12" t="s">
         <v>2500</v>
@@ -24376,7 +24375,7 @@
       </c>
       <c r="J419" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K419" s="12" t="s">
         <v>2500</v>
@@ -24415,7 +24414,7 @@
       </c>
       <c r="J420" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="K420" s="12" t="s">
         <v>2500</v>
@@ -24454,7 +24453,7 @@
       </c>
       <c r="J421" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K421" s="12" t="s">
         <v>2500</v>
@@ -24493,7 +24492,7 @@
       </c>
       <c r="J422" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K422" s="12" t="s">
         <v>2500</v>
@@ -24532,7 +24531,7 @@
       </c>
       <c r="J423" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K423" s="12" t="s">
         <v>2500</v>
@@ -24571,7 +24570,7 @@
       </c>
       <c r="J424" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K424" s="12" t="s">
         <v>2500</v>
@@ -24610,7 +24609,7 @@
       </c>
       <c r="J425" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K425" s="12" t="s">
         <v>2500</v>
@@ -24649,7 +24648,7 @@
       </c>
       <c r="J426" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K426" s="12" t="s">
         <v>2500</v>
@@ -24688,7 +24687,7 @@
       </c>
       <c r="J427" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K427" s="12" t="s">
         <v>2500</v>
@@ -24727,7 +24726,7 @@
       </c>
       <c r="J428" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="K428" s="12" t="s">
         <v>2500</v>
@@ -24766,7 +24765,7 @@
       </c>
       <c r="J429" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K429" s="12" t="s">
         <v>2500</v>
@@ -24805,7 +24804,7 @@
       </c>
       <c r="J430" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="K430" s="12" t="s">
         <v>2500</v>
@@ -24844,7 +24843,7 @@
       </c>
       <c r="J431" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K431" s="12" t="s">
         <v>2500</v>
@@ -24883,7 +24882,7 @@
       </c>
       <c r="J432" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="K432" s="12" t="s">
         <v>2500</v>
@@ -24922,7 +24921,7 @@
       </c>
       <c r="J433" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="K433" s="12" t="s">
         <v>2500</v>
@@ -24961,7 +24960,7 @@
       </c>
       <c r="J434" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="K434" s="12" t="s">
         <v>2500</v>
@@ -25000,7 +24999,7 @@
       </c>
       <c r="J435" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K435" s="12" t="s">
         <v>2500</v>
@@ -25039,7 +25038,7 @@
       </c>
       <c r="J436" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="K436" s="12" t="s">
         <v>2500</v>
@@ -25078,7 +25077,7 @@
       </c>
       <c r="J437" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="K437" s="12" t="s">
         <v>2500</v>
@@ -25117,7 +25116,7 @@
       </c>
       <c r="J438" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K438" s="12" t="s">
         <v>2500</v>
@@ -25156,7 +25155,7 @@
       </c>
       <c r="J439" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="K439" s="12" t="s">
         <v>2500</v>
@@ -25195,7 +25194,7 @@
       </c>
       <c r="J440" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K440" s="12" t="s">
         <v>2500</v>
@@ -25234,7 +25233,7 @@
       </c>
       <c r="J441" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K441" s="12" t="s">
         <v>2500</v>
@@ -25273,7 +25272,7 @@
       </c>
       <c r="J442" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="K442" s="12" t="s">
         <v>2500</v>
@@ -25312,7 +25311,7 @@
       </c>
       <c r="J443" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K443" s="12" t="s">
         <v>2500</v>
@@ -25351,7 +25350,7 @@
       </c>
       <c r="J444" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K444" s="12" t="s">
         <v>2500</v>
@@ -25390,7 +25389,7 @@
       </c>
       <c r="J445" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K445" s="12" t="s">
         <v>2500</v>
@@ -25429,7 +25428,7 @@
       </c>
       <c r="J446" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="K446" s="12" t="s">
         <v>2500</v>
@@ -25468,7 +25467,7 @@
       </c>
       <c r="J447" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K447" s="12" t="s">
         <v>2500</v>
@@ -25507,7 +25506,7 @@
       </c>
       <c r="J448" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="K448" s="12" t="s">
         <v>2500</v>
@@ -25546,7 +25545,7 @@
       </c>
       <c r="J449" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="K449" s="12" t="s">
         <v>2500</v>
@@ -25585,7 +25584,7 @@
       </c>
       <c r="J450" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K450" s="12" t="s">
         <v>2500</v>
@@ -25624,7 +25623,7 @@
       </c>
       <c r="J451" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="K451" s="12" t="s">
         <v>2500</v>
@@ -25663,7 +25662,7 @@
       </c>
       <c r="J452" s="15">
         <f t="shared" ref="J452:J515" ca="1" si="7">RANDBETWEEN(1,100)</f>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="K452" s="12" t="s">
         <v>2500</v>
@@ -25702,7 +25701,7 @@
       </c>
       <c r="J453" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K453" s="12" t="s">
         <v>2500</v>
@@ -25739,7 +25738,7 @@
       </c>
       <c r="J454" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K454" s="12" t="s">
         <v>2500</v>
@@ -25778,7 +25777,7 @@
       </c>
       <c r="J455" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K455" s="12" t="s">
         <v>2500</v>
@@ -25817,7 +25816,7 @@
       </c>
       <c r="J456" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="K456" s="12" t="s">
         <v>2500</v>
@@ -25856,7 +25855,7 @@
       </c>
       <c r="J457" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="K457" s="12" t="s">
         <v>2500</v>
@@ -25895,7 +25894,7 @@
       </c>
       <c r="J458" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K458" s="12" t="s">
         <v>2500</v>
@@ -25934,7 +25933,7 @@
       </c>
       <c r="J459" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="K459" s="12" t="s">
         <v>2500</v>
@@ -25973,7 +25972,7 @@
       </c>
       <c r="J460" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K460" s="12" t="s">
         <v>2500</v>
@@ -26012,7 +26011,7 @@
       </c>
       <c r="J461" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="K461" s="12" t="s">
         <v>2500</v>
@@ -26049,7 +26048,7 @@
       </c>
       <c r="J462" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K462" s="12" t="s">
         <v>2500</v>
@@ -26088,7 +26087,7 @@
       </c>
       <c r="J463" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K463" s="12" t="s">
         <v>2500</v>
@@ -26127,7 +26126,7 @@
       </c>
       <c r="J464" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K464" s="12" t="s">
         <v>2500</v>
@@ -26166,7 +26165,7 @@
       </c>
       <c r="J465" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="K465" s="12" t="s">
         <v>2500</v>
@@ -26205,7 +26204,7 @@
       </c>
       <c r="J466" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K466" s="12" t="s">
         <v>2500</v>
@@ -26244,7 +26243,7 @@
       </c>
       <c r="J467" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K467" s="12" t="s">
         <v>2500</v>
@@ -26283,7 +26282,7 @@
       </c>
       <c r="J468" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K468" s="12" t="s">
         <v>2500</v>
@@ -26322,7 +26321,7 @@
       </c>
       <c r="J469" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K469" s="12" t="s">
         <v>2500</v>
@@ -26361,7 +26360,7 @@
       </c>
       <c r="J470" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="K470" s="12" t="s">
         <v>2500</v>
@@ -26400,7 +26399,7 @@
       </c>
       <c r="J471" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K471" s="12" t="s">
         <v>2500</v>
@@ -26439,7 +26438,7 @@
       </c>
       <c r="J472" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="K472" s="12" t="s">
         <v>2500</v>
@@ -26478,7 +26477,7 @@
       </c>
       <c r="J473" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K473" s="12" t="s">
         <v>2500</v>
@@ -26517,7 +26516,7 @@
       </c>
       <c r="J474" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K474" s="12" t="s">
         <v>2500</v>
@@ -26556,7 +26555,7 @@
       </c>
       <c r="J475" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K475" s="12" t="s">
         <v>2500</v>
@@ -26595,7 +26594,7 @@
       </c>
       <c r="J476" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="K476" s="12" t="s">
         <v>2500</v>
@@ -26634,7 +26633,7 @@
       </c>
       <c r="J477" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K477" s="12" t="s">
         <v>2500</v>
@@ -26673,7 +26672,7 @@
       </c>
       <c r="J478" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K478" s="12" t="s">
         <v>2500</v>
@@ -26712,7 +26711,7 @@
       </c>
       <c r="J479" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K479" s="12" t="s">
         <v>2500</v>
@@ -26751,7 +26750,7 @@
       </c>
       <c r="J480" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K480" s="12" t="s">
         <v>2500</v>
@@ -26790,7 +26789,7 @@
       </c>
       <c r="J481" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K481" s="12" t="s">
         <v>2500</v>
@@ -26829,7 +26828,7 @@
       </c>
       <c r="J482" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K482" s="12" t="s">
         <v>2500</v>
@@ -26868,7 +26867,7 @@
       </c>
       <c r="J483" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="K483" s="12" t="s">
         <v>2500</v>
@@ -26907,7 +26906,7 @@
       </c>
       <c r="J484" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K484" s="12" t="s">
         <v>2500</v>
@@ -26946,7 +26945,7 @@
       </c>
       <c r="J485" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K485" s="12" t="s">
         <v>2500</v>
@@ -26985,7 +26984,7 @@
       </c>
       <c r="J486" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K486" s="12" t="s">
         <v>2500</v>
@@ -27024,7 +27023,7 @@
       </c>
       <c r="J487" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K487" s="12" t="s">
         <v>2500</v>
@@ -27063,7 +27062,7 @@
       </c>
       <c r="J488" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K488" s="12" t="s">
         <v>2500</v>
@@ -27102,7 +27101,7 @@
       </c>
       <c r="J489" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="K489" s="12" t="s">
         <v>2500</v>
@@ -27141,7 +27140,7 @@
       </c>
       <c r="J490" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K490" s="12" t="s">
         <v>2500</v>
@@ -27180,7 +27179,7 @@
       </c>
       <c r="J491" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K491" s="12" t="s">
         <v>2500</v>
@@ -27219,7 +27218,7 @@
       </c>
       <c r="J492" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="K492" s="12" t="s">
         <v>2500</v>
@@ -27258,7 +27257,7 @@
       </c>
       <c r="J493" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K493" s="12" t="s">
         <v>2500</v>
@@ -27297,7 +27296,7 @@
       </c>
       <c r="J494" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K494" s="12" t="s">
         <v>2500</v>
@@ -27336,7 +27335,7 @@
       </c>
       <c r="J495" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K495" s="12" t="s">
         <v>2500</v>
@@ -27375,7 +27374,7 @@
       </c>
       <c r="J496" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K496" s="12" t="s">
         <v>2500</v>
@@ -27414,7 +27413,7 @@
       </c>
       <c r="J497" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="K497" s="12" t="s">
         <v>2500</v>
@@ -27453,7 +27452,7 @@
       </c>
       <c r="J498" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K498" s="12" t="s">
         <v>2500</v>
@@ -27492,7 +27491,7 @@
       </c>
       <c r="J499" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K499" s="12" t="s">
         <v>2500</v>
@@ -27531,7 +27530,7 @@
       </c>
       <c r="J500" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="K500" s="12" t="s">
         <v>2500</v>
@@ -27570,7 +27569,7 @@
       </c>
       <c r="J501" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K501" s="12" t="s">
         <v>2500</v>
@@ -27609,7 +27608,7 @@
       </c>
       <c r="J502" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K502" s="12" t="s">
         <v>2500</v>
@@ -27648,7 +27647,7 @@
       </c>
       <c r="J503" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="K503" s="12" t="s">
         <v>2500</v>
@@ -27687,7 +27686,7 @@
       </c>
       <c r="J504" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K504" s="12" t="s">
         <v>2500</v>
@@ -27726,7 +27725,7 @@
       </c>
       <c r="J505" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K505" s="12" t="s">
         <v>2500</v>
@@ -27765,7 +27764,7 @@
       </c>
       <c r="J506" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K506" s="12" t="s">
         <v>2500</v>
@@ -27804,7 +27803,7 @@
       </c>
       <c r="J507" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K507" s="12" t="s">
         <v>2500</v>
@@ -27843,7 +27842,7 @@
       </c>
       <c r="J508" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K508" s="12" t="s">
         <v>2500</v>
@@ -27882,7 +27881,7 @@
       </c>
       <c r="J509" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K509" s="12" t="s">
         <v>2500</v>
@@ -27921,7 +27920,7 @@
       </c>
       <c r="J510" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="K510" s="12" t="s">
         <v>2500</v>
@@ -27960,7 +27959,7 @@
       </c>
       <c r="J511" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="K511" s="12" t="s">
         <v>2500</v>
@@ -27999,7 +27998,7 @@
       </c>
       <c r="J512" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K512" s="12" t="s">
         <v>2500</v>
@@ -28038,7 +28037,7 @@
       </c>
       <c r="J513" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K513" s="12" t="s">
         <v>2500</v>
@@ -28077,7 +28076,7 @@
       </c>
       <c r="J514" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K514" s="12" t="s">
         <v>2500</v>
@@ -28116,7 +28115,7 @@
       </c>
       <c r="J515" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="K515" s="12" t="s">
         <v>2500</v>
@@ -28153,7 +28152,7 @@
       </c>
       <c r="J516" s="15">
         <f t="shared" ref="J516:J579" ca="1" si="8">RANDBETWEEN(1,100)</f>
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K516" s="12" t="s">
         <v>2500</v>
@@ -28192,7 +28191,7 @@
       </c>
       <c r="J517" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K517" s="12" t="s">
         <v>2500</v>
@@ -28229,7 +28228,7 @@
       </c>
       <c r="J518" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K518" s="12" t="s">
         <v>2500</v>
@@ -28268,7 +28267,7 @@
       </c>
       <c r="J519" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K519" s="12" t="s">
         <v>2500</v>
@@ -28307,7 +28306,7 @@
       </c>
       <c r="J520" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="K520" s="12" t="s">
         <v>2500</v>
@@ -28346,7 +28345,7 @@
       </c>
       <c r="J521" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="K521" s="12" t="s">
         <v>2500</v>
@@ -28385,7 +28384,7 @@
       </c>
       <c r="J522" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K522" s="12" t="s">
         <v>2500</v>
@@ -28424,7 +28423,7 @@
       </c>
       <c r="J523" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K523" s="12" t="s">
         <v>2500</v>
@@ -28463,7 +28462,7 @@
       </c>
       <c r="J524" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K524" s="12" t="s">
         <v>2500</v>
@@ -28502,7 +28501,7 @@
       </c>
       <c r="J525" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K525" s="12" t="s">
         <v>2500</v>
@@ -28541,7 +28540,7 @@
       </c>
       <c r="J526" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K526" s="12" t="s">
         <v>2500</v>
@@ -28580,7 +28579,7 @@
       </c>
       <c r="J527" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K527" s="12" t="s">
         <v>2500</v>
@@ -28619,7 +28618,7 @@
       </c>
       <c r="J528" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K528" s="12" t="s">
         <v>2500</v>
@@ -28658,7 +28657,7 @@
       </c>
       <c r="J529" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K529" s="12" t="s">
         <v>2500</v>
@@ -28697,7 +28696,7 @@
       </c>
       <c r="J530" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K530" s="12" t="s">
         <v>2500</v>
@@ -28736,7 +28735,7 @@
       </c>
       <c r="J531" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="K531" s="12" t="s">
         <v>2500</v>
@@ -28775,7 +28774,7 @@
       </c>
       <c r="J532" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K532" s="12" t="s">
         <v>2500</v>
@@ -28814,7 +28813,7 @@
       </c>
       <c r="J533" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K533" s="12" t="s">
         <v>2500</v>
@@ -28853,7 +28852,7 @@
       </c>
       <c r="J534" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K534" s="12" t="s">
         <v>2500</v>
@@ -28892,7 +28891,7 @@
       </c>
       <c r="J535" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="K535" s="12" t="s">
         <v>2500</v>
@@ -28931,7 +28930,7 @@
       </c>
       <c r="J536" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K536" s="12" t="s">
         <v>2500</v>
@@ -29009,7 +29008,7 @@
       </c>
       <c r="J538" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="K538" s="12" t="s">
         <v>2500</v>
@@ -29048,7 +29047,7 @@
       </c>
       <c r="J539" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K539" s="12" t="s">
         <v>2500</v>
@@ -29087,7 +29086,7 @@
       </c>
       <c r="J540" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="K540" s="12" t="s">
         <v>2500</v>
@@ -29126,7 +29125,7 @@
       </c>
       <c r="J541" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K541" s="12" t="s">
         <v>2500</v>
@@ -29165,7 +29164,7 @@
       </c>
       <c r="J542" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="K542" s="12" t="s">
         <v>2500</v>
@@ -29204,7 +29203,7 @@
       </c>
       <c r="J543" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="K543" s="12" t="s">
         <v>2500</v>
@@ -29243,7 +29242,7 @@
       </c>
       <c r="J544" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="K544" s="12" t="s">
         <v>2500</v>
@@ -29282,7 +29281,7 @@
       </c>
       <c r="J545" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K545" s="12" t="s">
         <v>2500</v>
@@ -29321,7 +29320,7 @@
       </c>
       <c r="J546" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="K546" s="12" t="s">
         <v>2500</v>
@@ -29360,7 +29359,7 @@
       </c>
       <c r="J547" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K547" s="12" t="s">
         <v>2500</v>
@@ -29399,7 +29398,7 @@
       </c>
       <c r="J548" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K548" s="12" t="s">
         <v>2500</v>
@@ -29438,7 +29437,7 @@
       </c>
       <c r="J549" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K549" s="12" t="s">
         <v>2500</v>
@@ -29477,7 +29476,7 @@
       </c>
       <c r="J550" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K550" s="12" t="s">
         <v>2500</v>
@@ -29516,7 +29515,7 @@
       </c>
       <c r="J551" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="K551" s="12" t="s">
         <v>2500</v>
@@ -29555,7 +29554,7 @@
       </c>
       <c r="J552" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K552" s="12" t="s">
         <v>2500</v>
@@ -29594,7 +29593,7 @@
       </c>
       <c r="J553" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K553" s="12" t="s">
         <v>2500</v>
@@ -29633,7 +29632,7 @@
       </c>
       <c r="J554" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="K554" s="12" t="s">
         <v>2500</v>
@@ -29672,7 +29671,7 @@
       </c>
       <c r="J555" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K555" s="12" t="s">
         <v>2500</v>
@@ -29711,7 +29710,7 @@
       </c>
       <c r="J556" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K556" s="12" t="s">
         <v>2500</v>
@@ -29750,7 +29749,7 @@
       </c>
       <c r="J557" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K557" s="12" t="s">
         <v>2500</v>
@@ -29789,7 +29788,7 @@
       </c>
       <c r="J558" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K558" s="12" t="s">
         <v>2500</v>
@@ -29828,7 +29827,7 @@
       </c>
       <c r="J559" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K559" s="12" t="s">
         <v>2500</v>
@@ -29867,7 +29866,7 @@
       </c>
       <c r="J560" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="K560" s="12" t="s">
         <v>2500</v>
@@ -29906,7 +29905,7 @@
       </c>
       <c r="J561" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="K561" s="12" t="s">
         <v>2500</v>
@@ -29945,7 +29944,7 @@
       </c>
       <c r="J562" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K562" s="12" t="s">
         <v>2500</v>
@@ -29984,7 +29983,7 @@
       </c>
       <c r="J563" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K563" s="12" t="s">
         <v>2500</v>
@@ -30023,7 +30022,7 @@
       </c>
       <c r="J564" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K564" s="12" t="s">
         <v>2500</v>
@@ -30062,7 +30061,7 @@
       </c>
       <c r="J565" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K565" s="12" t="s">
         <v>2500</v>
@@ -30101,7 +30100,7 @@
       </c>
       <c r="J566" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="K566" s="12" t="s">
         <v>2500</v>
@@ -30140,7 +30139,7 @@
       </c>
       <c r="J567" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="K567" s="12" t="s">
         <v>2500</v>
@@ -30179,7 +30178,7 @@
       </c>
       <c r="J568" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="K568" s="12" t="s">
         <v>2500</v>
@@ -30218,7 +30217,7 @@
       </c>
       <c r="J569" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K569" s="12" t="s">
         <v>2500</v>
@@ -30257,7 +30256,7 @@
       </c>
       <c r="J570" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K570" s="12" t="s">
         <v>2500</v>
@@ -30296,7 +30295,7 @@
       </c>
       <c r="J571" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K571" s="12" t="s">
         <v>2500</v>
@@ -30335,7 +30334,7 @@
       </c>
       <c r="J572" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K572" s="12" t="s">
         <v>2500</v>
@@ -30374,7 +30373,7 @@
       </c>
       <c r="J573" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K573" s="12" t="s">
         <v>2500</v>
@@ -30413,7 +30412,7 @@
       </c>
       <c r="J574" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K574" s="12" t="s">
         <v>2500</v>
@@ -30452,7 +30451,7 @@
       </c>
       <c r="J575" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K575" s="12" t="s">
         <v>2500</v>
@@ -30491,7 +30490,7 @@
       </c>
       <c r="J576" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="K576" s="12" t="s">
         <v>2500</v>
@@ -30608,7 +30607,7 @@
       </c>
       <c r="J579" s="15">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K579" s="12" t="s">
         <v>2500</v>
@@ -30647,7 +30646,7 @@
       </c>
       <c r="J580" s="15">
         <f t="shared" ref="J580:J643" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="K580" s="12" t="s">
         <v>2500</v>
@@ -30686,7 +30685,7 @@
       </c>
       <c r="J581" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K581" s="12" t="s">
         <v>2500</v>
@@ -30725,7 +30724,7 @@
       </c>
       <c r="J582" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K582" s="12" t="s">
         <v>2500</v>
@@ -30764,7 +30763,7 @@
       </c>
       <c r="J583" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="K583" s="12" t="s">
         <v>2500</v>
@@ -30842,7 +30841,7 @@
       </c>
       <c r="J585" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K585" s="12" t="s">
         <v>2500</v>
@@ -30881,7 +30880,7 @@
       </c>
       <c r="J586" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="K586" s="12" t="s">
         <v>2500</v>
@@ -30920,7 +30919,7 @@
       </c>
       <c r="J587" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K587" s="12" t="s">
         <v>2500</v>
@@ -30959,7 +30958,7 @@
       </c>
       <c r="J588" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K588" s="12" t="s">
         <v>2500</v>
@@ -30998,7 +30997,7 @@
       </c>
       <c r="J589" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K589" s="12" t="s">
         <v>2500</v>
@@ -31037,7 +31036,7 @@
       </c>
       <c r="J590" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="K590" s="12" t="s">
         <v>2500</v>
@@ -31076,7 +31075,7 @@
       </c>
       <c r="J591" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="K591" s="12" t="s">
         <v>2500</v>
@@ -31115,7 +31114,7 @@
       </c>
       <c r="J592" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="K592" s="12" t="s">
         <v>2500</v>
@@ -31154,7 +31153,7 @@
       </c>
       <c r="J593" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K593" s="12" t="s">
         <v>2500</v>
@@ -31193,7 +31192,7 @@
       </c>
       <c r="J594" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="K594" s="12" t="s">
         <v>2500</v>
@@ -31232,7 +31231,7 @@
       </c>
       <c r="J595" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="K595" s="12" t="s">
         <v>2500</v>
@@ -31271,7 +31270,7 @@
       </c>
       <c r="J596" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K596" s="12" t="s">
         <v>2500</v>
@@ -31310,7 +31309,7 @@
       </c>
       <c r="J597" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K597" s="12" t="s">
         <v>2500</v>
@@ -31349,7 +31348,7 @@
       </c>
       <c r="J598" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K598" s="12" t="s">
         <v>2500</v>
@@ -31388,7 +31387,7 @@
       </c>
       <c r="J599" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K599" s="12" t="s">
         <v>2500</v>
@@ -31427,7 +31426,7 @@
       </c>
       <c r="J600" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="K600" s="12" t="s">
         <v>2500</v>
@@ -31466,7 +31465,7 @@
       </c>
       <c r="J601" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K601" s="12" t="s">
         <v>2500</v>
@@ -31505,7 +31504,7 @@
       </c>
       <c r="J602" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="K602" s="12" t="s">
         <v>2500</v>
@@ -31544,7 +31543,7 @@
       </c>
       <c r="J603" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K603" s="12" t="s">
         <v>2500</v>
@@ -31583,7 +31582,7 @@
       </c>
       <c r="J604" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="K604" s="12" t="s">
         <v>2500</v>
@@ -31622,7 +31621,7 @@
       </c>
       <c r="J605" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="K605" s="12" t="s">
         <v>2500</v>
@@ -31661,7 +31660,7 @@
       </c>
       <c r="J606" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K606" s="12" t="s">
         <v>2500</v>
@@ -31700,7 +31699,7 @@
       </c>
       <c r="J607" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K607" s="12" t="s">
         <v>2500</v>
@@ -31739,7 +31738,7 @@
       </c>
       <c r="J608" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="K608" s="12" t="s">
         <v>2500</v>
@@ -31778,7 +31777,7 @@
       </c>
       <c r="J609" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K609" s="12" t="s">
         <v>2500</v>
@@ -31817,7 +31816,7 @@
       </c>
       <c r="J610" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K610" s="12" t="s">
         <v>2500</v>
@@ -31856,7 +31855,7 @@
       </c>
       <c r="J611" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="K611" s="12" t="s">
         <v>2500</v>
@@ -31895,7 +31894,7 @@
       </c>
       <c r="J612" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K612" s="12" t="s">
         <v>2500</v>
@@ -31934,7 +31933,7 @@
       </c>
       <c r="J613" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K613" s="12" t="s">
         <v>2500</v>
@@ -31973,7 +31972,7 @@
       </c>
       <c r="J614" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K614" s="12" t="s">
         <v>2500</v>
@@ -32012,7 +32011,7 @@
       </c>
       <c r="J615" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K615" s="12" t="s">
         <v>2500</v>
@@ -32051,7 +32050,7 @@
       </c>
       <c r="J616" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K616" s="12" t="s">
         <v>2500</v>
@@ -32090,7 +32089,7 @@
       </c>
       <c r="J617" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="K617" s="12" t="s">
         <v>2500</v>
@@ -32129,7 +32128,7 @@
       </c>
       <c r="J618" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="K618" s="12" t="s">
         <v>2500</v>
@@ -32168,7 +32167,7 @@
       </c>
       <c r="J619" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="K619" s="12" t="s">
         <v>2500</v>
@@ -32207,7 +32206,7 @@
       </c>
       <c r="J620" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K620" s="12" t="s">
         <v>2500</v>
@@ -32246,7 +32245,7 @@
       </c>
       <c r="J621" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="K621" s="12" t="s">
         <v>2500</v>
@@ -32285,7 +32284,7 @@
       </c>
       <c r="J622" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K622" s="12" t="s">
         <v>2500</v>
@@ -32324,7 +32323,7 @@
       </c>
       <c r="J623" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K623" s="12" t="s">
         <v>2500</v>
@@ -32363,7 +32362,7 @@
       </c>
       <c r="J624" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="K624" s="12" t="s">
         <v>2500</v>
@@ -32402,7 +32401,7 @@
       </c>
       <c r="J625" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K625" s="12" t="s">
         <v>2500</v>
@@ -32441,7 +32440,7 @@
       </c>
       <c r="J626" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="K626" s="12" t="s">
         <v>2500</v>
@@ -32480,7 +32479,7 @@
       </c>
       <c r="J627" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="K627" s="12" t="s">
         <v>2500</v>
@@ -32519,7 +32518,7 @@
       </c>
       <c r="J628" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="K628" s="12" t="s">
         <v>2500</v>
@@ -32558,7 +32557,7 @@
       </c>
       <c r="J629" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="K629" s="12" t="s">
         <v>2500</v>
@@ -32597,7 +32596,7 @@
       </c>
       <c r="J630" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K630" s="12" t="s">
         <v>2500</v>
@@ -32636,7 +32635,7 @@
       </c>
       <c r="J631" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K631" s="12" t="s">
         <v>2500</v>
@@ -32675,7 +32674,7 @@
       </c>
       <c r="J632" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K632" s="12" t="s">
         <v>2500</v>
@@ -32714,7 +32713,7 @@
       </c>
       <c r="J633" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="K633" s="12" t="s">
         <v>2500</v>
@@ -32753,7 +32752,7 @@
       </c>
       <c r="J634" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="K634" s="12" t="s">
         <v>2500</v>
@@ -32790,7 +32789,7 @@
       </c>
       <c r="J635" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K635" s="12" t="s">
         <v>2500</v>
@@ -32829,7 +32828,7 @@
       </c>
       <c r="J636" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="K636" s="12" t="s">
         <v>2500</v>
@@ -32868,7 +32867,7 @@
       </c>
       <c r="J637" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="K637" s="12" t="s">
         <v>2500</v>
@@ -32944,7 +32943,7 @@
       </c>
       <c r="J639" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K639" s="12" t="s">
         <v>2500</v>
@@ -32981,7 +32980,7 @@
       </c>
       <c r="J640" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K640" s="12" t="s">
         <v>2500</v>
@@ -33018,7 +33017,7 @@
       </c>
       <c r="J641" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="K641" s="12" t="s">
         <v>2500</v>
@@ -33055,7 +33054,7 @@
       </c>
       <c r="J642" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K642" s="12" t="s">
         <v>2500</v>
@@ -33092,7 +33091,7 @@
       </c>
       <c r="J643" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="K643" s="12" t="s">
         <v>2500</v>
@@ -33129,7 +33128,7 @@
       </c>
       <c r="J644" s="15">
         <f t="shared" ref="J644:J707" ca="1" si="10">RANDBETWEEN(1,100)</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K644" s="12" t="s">
         <v>2500</v>
@@ -33166,7 +33165,7 @@
       </c>
       <c r="J645" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="K645" s="12" t="s">
         <v>2500</v>
@@ -33203,7 +33202,7 @@
       </c>
       <c r="J646" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="K646" s="12" t="s">
         <v>2500</v>
@@ -33240,7 +33239,7 @@
       </c>
       <c r="J647" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K647" s="12" t="s">
         <v>2500</v>
@@ -33277,7 +33276,7 @@
       </c>
       <c r="J648" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K648" s="12" t="s">
         <v>2500</v>
@@ -33314,7 +33313,7 @@
       </c>
       <c r="J649" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K649" s="12" t="s">
         <v>2500</v>
@@ -33351,7 +33350,7 @@
       </c>
       <c r="J650" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="K650" s="12" t="s">
         <v>2500</v>
@@ -33388,7 +33387,7 @@
       </c>
       <c r="J651" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K651" s="12" t="s">
         <v>2500</v>
@@ -33425,7 +33424,7 @@
       </c>
       <c r="J652" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="K652" s="12" t="s">
         <v>2500</v>
@@ -33499,7 +33498,7 @@
       </c>
       <c r="J654" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="K654" s="12" t="s">
         <v>2500</v>
@@ -33536,7 +33535,7 @@
       </c>
       <c r="J655" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K655" s="12" t="s">
         <v>2500</v>
@@ -33573,7 +33572,7 @@
       </c>
       <c r="J656" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K656" s="12" t="s">
         <v>2500</v>
@@ -33610,7 +33609,7 @@
       </c>
       <c r="J657" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K657" s="12" t="s">
         <v>2500</v>
@@ -33647,7 +33646,7 @@
       </c>
       <c r="J658" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K658" s="12" t="s">
         <v>2500</v>
@@ -33684,7 +33683,7 @@
       </c>
       <c r="J659" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="K659" s="12" t="s">
         <v>2500</v>
@@ -33721,7 +33720,7 @@
       </c>
       <c r="J660" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K660" s="12" t="s">
         <v>2500</v>
@@ -33758,7 +33757,7 @@
       </c>
       <c r="J661" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K661" s="12" t="s">
         <v>2500</v>
@@ -33793,7 +33792,7 @@
       </c>
       <c r="J662" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K662" s="12" t="s">
         <v>2500</v>
@@ -33828,7 +33827,7 @@
       </c>
       <c r="J663" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K663" s="12" t="s">
         <v>2500</v>
@@ -33863,7 +33862,7 @@
       </c>
       <c r="J664" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K664" s="12" t="s">
         <v>2500</v>
@@ -33900,7 +33899,7 @@
       </c>
       <c r="J665" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K665" s="12" t="s">
         <v>2500</v>
@@ -33937,7 +33936,7 @@
       </c>
       <c r="J666" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="K666" s="12" t="s">
         <v>2500</v>
@@ -33974,7 +33973,7 @@
       </c>
       <c r="J667" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K667" s="12" t="s">
         <v>2500</v>
@@ -34011,7 +34010,7 @@
       </c>
       <c r="J668" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="K668" s="12" t="s">
         <v>2500</v>
@@ -34048,7 +34047,7 @@
       </c>
       <c r="J669" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="K669" s="12" t="s">
         <v>2500</v>
@@ -34085,7 +34084,7 @@
       </c>
       <c r="J670" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K670" s="12" t="s">
         <v>2500</v>
@@ -34124,7 +34123,7 @@
       </c>
       <c r="J671" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K671" s="12" t="s">
         <v>2500</v>
@@ -34163,7 +34162,7 @@
       </c>
       <c r="J672" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="K672" s="12" t="s">
         <v>2500</v>
@@ -34200,7 +34199,7 @@
       </c>
       <c r="J673" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K673" s="12" t="s">
         <v>2500</v>
@@ -34235,7 +34234,7 @@
       </c>
       <c r="J674" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K674" s="12" t="s">
         <v>2500</v>
@@ -34270,7 +34269,7 @@
       </c>
       <c r="J675" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K675" s="12" t="s">
         <v>2500</v>
@@ -34307,7 +34306,7 @@
       </c>
       <c r="J676" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="K676" s="12" t="s">
         <v>2500</v>
@@ -34344,7 +34343,7 @@
       </c>
       <c r="J677" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K677" s="12" t="s">
         <v>2500</v>
@@ -34383,7 +34382,7 @@
       </c>
       <c r="J678" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="K678" s="12" t="s">
         <v>2500</v>
@@ -34422,7 +34421,7 @@
       </c>
       <c r="J679" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K679" s="12" t="s">
         <v>2500</v>
@@ -34461,7 +34460,7 @@
       </c>
       <c r="J680" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K680" s="12" t="s">
         <v>2500</v>
@@ -34498,7 +34497,7 @@
       </c>
       <c r="J681" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="K681" s="12" t="s">
         <v>2500</v>
@@ -34537,7 +34536,7 @@
       </c>
       <c r="J682" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K682" s="12" t="s">
         <v>2500</v>
@@ -34576,7 +34575,7 @@
       </c>
       <c r="J683" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="K683" s="12" t="s">
         <v>2500</v>
@@ -34615,7 +34614,7 @@
       </c>
       <c r="J684" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="K684" s="12" t="s">
         <v>2500</v>
@@ -34654,7 +34653,7 @@
       </c>
       <c r="J685" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="K685" s="12" t="s">
         <v>2500</v>
@@ -34693,7 +34692,7 @@
       </c>
       <c r="J686" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="K686" s="12" t="s">
         <v>2500</v>
@@ -34771,7 +34770,7 @@
       </c>
       <c r="J688" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K688" s="12" t="s">
         <v>2500</v>
@@ -34810,7 +34809,7 @@
       </c>
       <c r="J689" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K689" s="12" t="s">
         <v>2500</v>
@@ -34849,7 +34848,7 @@
       </c>
       <c r="J690" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K690" s="12" t="s">
         <v>2500</v>
@@ -34888,7 +34887,7 @@
       </c>
       <c r="J691" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K691" s="12" t="s">
         <v>2500</v>
@@ -34927,7 +34926,7 @@
       </c>
       <c r="J692" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="K692" s="12" t="s">
         <v>2500</v>
@@ -34966,7 +34965,7 @@
       </c>
       <c r="J693" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K693" s="12" t="s">
         <v>2500</v>
@@ -35005,7 +35004,7 @@
       </c>
       <c r="J694" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="K694" s="12" t="s">
         <v>2500</v>
@@ -35044,7 +35043,7 @@
       </c>
       <c r="J695" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K695" s="12" t="s">
         <v>2500</v>
@@ -35083,7 +35082,7 @@
       </c>
       <c r="J696" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="K696" s="12" t="s">
         <v>2500</v>
@@ -35122,7 +35121,7 @@
       </c>
       <c r="J697" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="K697" s="12" t="s">
         <v>2500</v>
@@ -35161,7 +35160,7 @@
       </c>
       <c r="J698" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K698" s="12" t="s">
         <v>2500</v>
@@ -35200,7 +35199,7 @@
       </c>
       <c r="J699" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="K699" s="12" t="s">
         <v>2500</v>
@@ -35239,7 +35238,7 @@
       </c>
       <c r="J700" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K700" s="12" t="s">
         <v>2500</v>
@@ -35278,7 +35277,7 @@
       </c>
       <c r="J701" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K701" s="12" t="s">
         <v>2500</v>
@@ -35317,7 +35316,7 @@
       </c>
       <c r="J702" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="K702" s="12" t="s">
         <v>2500</v>
@@ -35356,7 +35355,7 @@
       </c>
       <c r="J703" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="K703" s="12" t="s">
         <v>2500</v>
@@ -35395,7 +35394,7 @@
       </c>
       <c r="J704" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K704" s="12" t="s">
         <v>2500</v>
@@ -35434,7 +35433,7 @@
       </c>
       <c r="J705" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K705" s="12" t="s">
         <v>2500</v>
@@ -35473,7 +35472,7 @@
       </c>
       <c r="J706" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K706" s="12" t="s">
         <v>2500</v>
@@ -35512,7 +35511,7 @@
       </c>
       <c r="J707" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K707" s="12" t="s">
         <v>2500</v>
@@ -35551,7 +35550,7 @@
       </c>
       <c r="J708" s="15">
         <f t="shared" ref="J708:J730" ca="1" si="11">RANDBETWEEN(1,100)</f>
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="K708" s="12" t="s">
         <v>2500</v>
@@ -35590,7 +35589,7 @@
       </c>
       <c r="J709" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K709" s="12" t="s">
         <v>2500</v>
@@ -35629,7 +35628,7 @@
       </c>
       <c r="J710" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K710" s="12" t="s">
         <v>2500</v>
@@ -35668,7 +35667,7 @@
       </c>
       <c r="J711" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K711" s="12" t="s">
         <v>2500</v>
@@ -35707,7 +35706,7 @@
       </c>
       <c r="J712" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="K712" s="12" t="s">
         <v>2500</v>
@@ -35746,7 +35745,7 @@
       </c>
       <c r="J713" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="K713" s="12" t="s">
         <v>2500</v>
@@ -35785,7 +35784,7 @@
       </c>
       <c r="J714" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K714" s="12" t="s">
         <v>2500</v>
@@ -35824,7 +35823,7 @@
       </c>
       <c r="J715" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K715" s="12" t="s">
         <v>2500</v>
@@ -35863,7 +35862,7 @@
       </c>
       <c r="J716" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="K716" s="12" t="s">
         <v>2500</v>
@@ -35902,7 +35901,7 @@
       </c>
       <c r="J717" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K717" s="12" t="s">
         <v>2500</v>
@@ -35941,7 +35940,7 @@
       </c>
       <c r="J718" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K718" s="12" t="s">
         <v>2500</v>
@@ -35980,7 +35979,7 @@
       </c>
       <c r="J719" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K719" s="12" t="s">
         <v>2500</v>
@@ -36019,7 +36018,7 @@
       </c>
       <c r="J720" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="K720" s="12" t="s">
         <v>2500</v>
@@ -36058,7 +36057,7 @@
       </c>
       <c r="J721" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="K721" s="12" t="s">
         <v>2500</v>
@@ -36097,7 +36096,7 @@
       </c>
       <c r="J722" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K722" s="12" t="s">
         <v>2500</v>
@@ -36136,7 +36135,7 @@
       </c>
       <c r="J723" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K723" s="12" t="s">
         <v>2500</v>
@@ -36171,7 +36170,7 @@
       </c>
       <c r="J724" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K724" s="12" t="s">
         <v>2500</v>
@@ -36206,7 +36205,7 @@
       </c>
       <c r="J725" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="K725" s="12" t="s">
         <v>2500</v>
@@ -36241,7 +36240,7 @@
       </c>
       <c r="J726" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K726" s="12" t="s">
         <v>2500</v>
@@ -36276,7 +36275,7 @@
       </c>
       <c r="J727" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K727" s="12" t="s">
         <v>2500</v>
@@ -36315,7 +36314,7 @@
       </c>
       <c r="J728" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K728" s="12" t="s">
         <v>2500</v>
@@ -36352,7 +36351,7 @@
       </c>
       <c r="J729" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K729" s="12" t="s">
         <v>2500</v>
@@ -36387,7 +36386,7 @@
       </c>
       <c r="J730" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K730" s="12" t="s">
         <v>2500</v>
